--- a/outputs_HGR/f__Lactobacillaceae_train.xlsx
+++ b/outputs_HGR/f__Lactobacillaceae_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus10.fasta</t>
+          <t>label_12718_7_14_2.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.999999985653681</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.434631899272745e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.999999985653681</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -561,17 +561,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus104.fasta</t>
+          <t>label_12718_7_14_8.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9999999508740165</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.912598347178995e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9999999508740165</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -582,17 +582,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus106.fasta</t>
+          <t>label_12718_7_15_1.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9999995501865718</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.498134281491916e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999995501865718</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -603,17 +603,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus17.fasta</t>
+          <t>label_12718_7_59_0.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9839751943511685</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.01602480564883144</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.9839751943511685</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -624,17 +624,17 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus18.fasta</t>
+          <t>label_12718_7_59_1.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9827480978170866</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.01725190218291343</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9827480978170866</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -645,17 +645,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus19.fasta</t>
+          <t>label_12718_7_59_2.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9857409454732294</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.01425905452677058</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9857409454732294</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -666,17 +666,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus20.fasta</t>
+          <t>label_12718_7_59_4.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9729670740347276</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.02703292596527246</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9729670740347276</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -687,17 +687,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus25.fasta</t>
+          <t>label_20298_2_1_1.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.9999644360105818</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3.556398941818605e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9999644360105818</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -708,17 +708,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus32.fasta</t>
+          <t>label_20427_4_22_0.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.9999999956180179</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4.381982087632283e-09</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9999999956180179</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -729,17 +729,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus42.fasta</t>
+          <t>label_GCF_000159215_2.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.9999999999820397</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.796026162576774e-11</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9999999999820397</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -750,17 +750,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus51.fasta</t>
+          <t>label_GCF_000159415_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.9999994128946419</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5.87105358161849e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9999994128946419</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus57.fasta</t>
+          <t>label_GCF_000159715_0.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.9999999316777757</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.8322224273289e-08</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9999999316777757</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -792,17 +792,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus62.fasta</t>
+          <t>label_GCF_000160855_3.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.9999999348973948</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.510260521179235e-08</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9999999348973948</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -813,17 +813,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus7.fasta</t>
+          <t>label_GCF_001433855_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.9976162584341345</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.002383741565865478</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9976162584341345</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -834,17 +834,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus72.fasta</t>
+          <t>label_GCF_001433855_4.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.9998578587507938</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.0001421412492061723</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9998578587507938</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -855,17 +855,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus8.fasta</t>
+          <t>label_GCF_001435665_0.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.9999783314837901</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.166851620987162e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9999783314837901</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -876,17 +876,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus86.fasta</t>
+          <t>label_UMGS258_1.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.9999999999982906</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.709362985705613e-12</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9999999999982906</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -897,17 +897,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus9.fasta</t>
+          <t>label_UMGS258_5.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.9999999999997454</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.545458393416551e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9999999999997454</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -918,17 +918,17 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus90.fasta</t>
+          <t>label_UMGS258_6.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.9999999999988521</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.147826240753616e-12</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9999999999988521</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -939,17 +939,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus92.fasta</t>
+          <t>label_UMGS258_8.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.9999999999964853</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.514751432252659e-12</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.9999999999964853</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -960,17 +960,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus97.fasta</t>
+          <t>label_12718_7_14_2.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0.999999985653681</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.434631899272745e-08</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.999999985653681</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -981,17 +981,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus99.fasta</t>
+          <t>label_12718_7_14_8.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.9999999508740165</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.912598347178995e-08</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.9999999508740165</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1002,17 +1002,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus10.fasta</t>
+          <t>label_12718_7_15_1.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0.9999995501865718</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4.498134281491916e-07</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.9999995501865718</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1023,17 +1023,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus104.fasta</t>
+          <t>label_12718_7_59_0.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.9839751943511685</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.01602480564883144</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.9839751943511685</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1044,17 +1044,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus106.fasta</t>
+          <t>label_12718_7_59_1.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0.9827480978170866</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.01725190218291343</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.9827480978170866</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1065,17 +1065,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus17.fasta</t>
+          <t>label_12718_7_59_2.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.9857409454732294</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.01425905452677058</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.9857409454732294</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1086,17 +1086,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus18.fasta</t>
+          <t>label_12718_7_59_4.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.9729670740347276</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.02703292596527246</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.9729670740347276</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1107,17 +1107,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus19.fasta</t>
+          <t>label_20298_2_1_1.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.9999644360105818</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.556398941818605e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9999644360105818</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1128,17 +1128,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus20.fasta</t>
+          <t>label_20427_4_22_0.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0.9999999956180179</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>4.381982087632283e-09</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.9999999956180179</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1149,17 +1149,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus25.fasta</t>
+          <t>label_GCF_000159215_2.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.9999999999820397</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.796026162576774e-11</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.9999999999820397</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1170,17 +1170,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus32.fasta</t>
+          <t>label_GCF_000159415_0.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0.9999994128946419</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>5.87105358161849e-07</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.9999994128946419</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1191,17 +1191,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus42.fasta</t>
+          <t>label_GCF_000159715_0.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0.9999999316777757</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>6.8322224273289e-08</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.9999999316777757</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1212,17 +1212,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus51.fasta</t>
+          <t>label_GCF_000160855_3.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0.9999999348973948</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>6.510260521179235e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.9999999348973948</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1233,17 +1233,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus57.fasta</t>
+          <t>label_GCF_001433855_1.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0.9976162584341345</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.002383741565865478</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.9976162584341345</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1254,17 +1254,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus62.fasta</t>
+          <t>label_GCF_001433855_4.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0.9998578587507938</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.0001421412492061723</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.9998578587507938</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1275,17 +1275,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus7.fasta</t>
+          <t>label_GCF_001435665_0.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0.9999783314837901</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.166851620987162e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9999783314837901</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1296,17 +1296,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus72.fasta</t>
+          <t>label_UMGS258_1.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.9999999999982906</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.709362985705613e-12</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.9999999999982906</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1317,17 +1317,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus8.fasta</t>
+          <t>label_UMGS258_5.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.9999999999997454</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.545458393416551e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9999999999997454</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1338,17 +1338,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus86.fasta</t>
+          <t>label_UMGS258_6.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0.9999999999988521</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.147826240753616e-12</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.9999999999988521</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1359,17 +1359,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus9.fasta</t>
+          <t>label_UMGS258_8.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0.9999999999964853</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3.514751432252659e-12</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.9999999999964853</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1380,17 +1380,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus90.fasta</t>
+          <t>label_12718_7_14_6.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.9857019333628071</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.01429806663719287</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9857019333628071</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1401,17 +1401,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus92.fasta</t>
+          <t>label_12718_7_15_0.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0.9827088573058937</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.01729114269410627</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.9827088573058937</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1422,17 +1422,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus97.fasta</t>
+          <t>label_12718_7_15_3.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0.9855846700723428</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.01441532992765717</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9855846700723428</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1443,17 +1443,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus99.fasta</t>
+          <t>label_12718_7_15_5.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0.9829719220337102</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.01702807796628976</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.9829719220337102</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1464,17 +1464,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus103.fasta</t>
+          <t>label_12718_7_17_1.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0.9766417401907119</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.0233582598092881</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9766417401907119</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus105.fasta</t>
+          <t>label_12718_7_56_0.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0.9902851933793062</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.009714806620693826</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9902851933793062</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1506,17 +1506,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus108.fasta</t>
+          <t>label_20298_2_1_3.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0.9782244007282386</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.02177559927176146</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9782244007282386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1527,17 +1527,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus12.fasta</t>
+          <t>label_20298_2_53_2.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0.9831654991992911</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.01683450080070889</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9831654991992911</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1548,17 +1548,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus14.fasta</t>
+          <t>label_20427_4_22_2.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0.9866443240318119</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.01335567596818815</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9866443240318119</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1569,17 +1569,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus15.fasta</t>
+          <t>label_20427_4_22_3.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0.9845501658673195</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.01544983413268057</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.9845501658673195</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1590,17 +1590,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus27.fasta</t>
+          <t>label_GCF_000159175_2.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.9909114218901844</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.009088578109815519</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.9909114218901844</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1611,17 +1611,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus3.fasta</t>
+          <t>label_GCF_000159215_0.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0.9831815085417724</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.01681849145822751</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0.9831815085417724</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1632,17 +1632,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus34.fasta</t>
+          <t>label_GCF_000159215_4.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0.9834588687617469</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.01654113123825305</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.9834588687617469</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1653,17 +1653,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus35.fasta</t>
+          <t>label_GCF_000159215_5.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0.9863032870516222</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.01369671294837779</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9863032870516222</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1674,17 +1674,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus4.fasta</t>
+          <t>label_GCF_000159415_4.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0.9884990792777105</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.01150092072228949</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9884990792777105</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1695,17 +1695,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus44.fasta</t>
+          <t>label_GCF_000160855_2.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0.988339453158435</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.01166054684156507</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.988339453158435</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1716,17 +1716,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus45.fasta</t>
+          <t>label_GCF_000227195_2.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0.9806905789294236</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.01930942107057645</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9806905789294236</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1737,17 +1737,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus55.fasta</t>
+          <t>label_GCF_001433855_2.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.9914724246349119</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.008527575365088049</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9914724246349119</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1758,17 +1758,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus61.fasta</t>
+          <t>label_GCF_001433855_6.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0.988891525952075</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.01110847404792499</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.988891525952075</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1779,17 +1779,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus67.fasta</t>
+          <t>label_GCF_001435665_2.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0.9840742754917713</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.01592572450822876</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.9840742754917713</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1800,17 +1800,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus70.fasta</t>
+          <t>label_UMGS2022_0.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0.9897498916819909</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.01025010831800906</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.9897498916819909</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1821,17 +1821,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus74.fasta</t>
+          <t>label_UMGS2022_2.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0.9897153795091616</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.01028462049083842</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9897153795091616</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1842,17 +1842,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus81.fasta</t>
+          <t>label_12718_7_14_1.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0.989476635920933</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.01052336407906692</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.989476635920933</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1863,17 +1863,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus82.fasta</t>
+          <t>label_12718_7_14_3.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0.9898510029583353</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>0.01014899704166475</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.9898510029583353</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1884,17 +1884,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus84.fasta</t>
+          <t>label_12718_7_14_5.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0.9915057348363026</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.008494265163697402</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.9915057348363026</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1905,17 +1905,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus96.fasta</t>
+          <t>label_12718_7_14_7.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0.9899729345712358</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.01002706542876417</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.9899729345712358</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1926,17 +1926,17 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus1.fasta</t>
+          <t>label_12718_7_59_3.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9933773771828494</v>
       </c>
       <c r="C68" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.006622622817150604</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9933773771828494</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1947,17 +1947,17 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus100.fasta</t>
+          <t>label_12718_7_59_8.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9935558062402512</v>
       </c>
       <c r="C69" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.006444193759748806</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9935558062402512</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1968,17 +1968,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus102.fasta</t>
+          <t>label_20298_2_1_0.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9877257094911412</v>
       </c>
       <c r="C70" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0122742905088588</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9877257094911412</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1989,17 +1989,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus2.fasta</t>
+          <t>label_20298_2_1_2.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9866161939648501</v>
       </c>
       <c r="C71" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.01338380603514984</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9866161939648501</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2010,17 +2010,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus23.fasta</t>
+          <t>label_20298_2_53_1.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9890519390711291</v>
       </c>
       <c r="C72" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.01094806092887085</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9890519390711291</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2031,17 +2031,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus24.fasta</t>
+          <t>label_GCF_000155515_0.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9975764393527328</v>
       </c>
       <c r="C73" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.002423560647267225</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9975764393527328</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2052,17 +2052,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus26.fasta</t>
+          <t>label_GCF_000159175_1.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9941251261350333</v>
       </c>
       <c r="C74" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.005874873864966603</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9941251261350333</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2073,17 +2073,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus29.fasta</t>
+          <t>label_GCF_000159175_3.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9955588358551621</v>
       </c>
       <c r="C75" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.00444116414483784</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9955588358551621</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2094,17 +2094,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus37.fasta</t>
+          <t>label_GCF_000159375_3.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9888947698790987</v>
       </c>
       <c r="C76" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.01110523012090122</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9888947698790987</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2115,17 +2115,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus39.fasta</t>
+          <t>label_GCF_000159415_1.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9931768112894056</v>
       </c>
       <c r="C77" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.006823188710594343</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9931768112894056</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2136,17 +2136,17 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus40.fasta</t>
+          <t>label_GCF_000160855_4.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9941688356692965</v>
       </c>
       <c r="C78" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.005831164330703569</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9941688356692965</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2157,17 +2157,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus5.fasta</t>
+          <t>label_GCF_000227195_0.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9876724405955168</v>
       </c>
       <c r="C79" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.01232755940448314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9876724405955168</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2178,17 +2178,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus52.fasta</t>
+          <t>label_GCF_001433855_0.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9966626639202441</v>
       </c>
       <c r="C80" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.00333733607975598</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9966626639202441</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2199,17 +2199,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus63.fasta</t>
+          <t>label_GCF_001433855_5.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9952933602220979</v>
       </c>
       <c r="C81" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.004706639777902055</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9952933602220979</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2220,17 +2220,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus65.fasta</t>
+          <t>label_GCF_001435475_3.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9905736576036588</v>
       </c>
       <c r="C82" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.009426342396341261</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9905736576036588</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2241,17 +2241,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus69.fasta</t>
+          <t>label_UMGS2022_1.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.993854960845867</v>
       </c>
       <c r="C83" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.006145039154133058</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.993854960845867</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2262,17 +2262,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus73.fasta</t>
+          <t>label_UMGS258_10.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9912780464436766</v>
       </c>
       <c r="C84" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.008721953556323429</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9912780464436766</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2283,17 +2283,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus78.fasta</t>
+          <t>label_12718_7_15_2.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9686597355871002</v>
       </c>
       <c r="C85" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0313402644128998</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9686597355871002</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2304,17 +2304,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus83.fasta</t>
+          <t>label_12718_7_15_4.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9673148492147522</v>
       </c>
       <c r="C86" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.03268515078524781</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9673148492147522</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2325,17 +2325,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus87.fasta</t>
+          <t>label_12718_7_59_5.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9759927305513173</v>
       </c>
       <c r="C87" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0240072694486827</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9759927305513173</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2346,17 +2346,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus98.fasta</t>
+          <t>label_12718_7_59_7.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9737272625634033</v>
       </c>
       <c r="C88" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.0262727374365968</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9737272625634033</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2367,17 +2367,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus107.fasta</t>
+          <t>label_20298_2_53_0.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0.9734620242199749</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.02653797578002515</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.9734620242199749</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2388,17 +2388,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus11.fasta</t>
+          <t>label_20298_2_53_3.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0.9737640466835564</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.02623595331644354</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0.9737640466835564</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2409,17 +2409,17 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus22.fasta</t>
+          <t>label_20298_2_53_4.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0.9710733208256943</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.02892667917430571</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.9710733208256943</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2430,17 +2430,17 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus28.fasta</t>
+          <t>label_20427_4_22_1.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0.9747243889061851</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.02527561109381498</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0.9747243889061851</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2451,17 +2451,17 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus30.fasta</t>
+          <t>label_GCF_000159175_0.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0.9757048262325911</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>0.02429517376740886</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0.9757048262325911</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2472,17 +2472,17 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus31.fasta</t>
+          <t>label_GCF_000159215_1.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0.9713631064392713</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>0.02863689356072869</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0.9713631064392713</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2493,17 +2493,17 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus33.fasta</t>
+          <t>label_GCF_000159215_6.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0.9731458247670906</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.02685417523290941</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0.9731458247670906</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2514,17 +2514,17 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus38.fasta</t>
+          <t>label_GCF_000159375_1.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0.9701743421214395</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.02982565787856046</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.9701743421214395</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2535,17 +2535,17 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus41.fasta</t>
+          <t>label_GCF_000159375_2.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0.9744166110620146</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.02558338893798542</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.9744166110620146</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2556,17 +2556,17 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus46.fasta</t>
+          <t>label_GCF_000159415_2.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0.9754496514311702</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.02455034856882976</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0.9754496514311702</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2577,17 +2577,17 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus48.fasta</t>
+          <t>label_GCF_000159715_1.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0.9746209324620569</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.02537906753794301</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.9746209324620569</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2598,17 +2598,17 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus49.fasta</t>
+          <t>label_GCF_000159715_2.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0.9747421503583804</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>0.0252578496416196</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0.9747421503583804</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2619,17 +2619,17 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus53.fasta</t>
+          <t>label_GCF_000160855_0.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0.9728366725191772</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>0.02716332748082284</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0.9728366725191772</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2640,17 +2640,17 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus58.fasta</t>
+          <t>label_GCF_001433855_3.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0.9787993031149282</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.02120069688507179</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0.9787993031149282</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2661,17 +2661,17 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus59.fasta</t>
+          <t>label_GCF_001435475_0.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9770064025283306</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.02299359747166936</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0.9770064025283306</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2682,17 +2682,17 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus6.fasta</t>
+          <t>label_GCF_001435665_1.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0.9715716885798743</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.02842831142012564</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0.9715716885798743</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2703,17 +2703,17 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus71.fasta</t>
+          <t>label_UMGS258_0.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0.9773201196919998</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.02267988030800018</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0.9773201196919998</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2724,17 +2724,17 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus75.fasta</t>
+          <t>label_UMGS258_4.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0.9701089158609922</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.02989108413900778</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0.9701089158609922</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2745,17 +2745,17 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus80.fasta</t>
+          <t>label_UMGS896_0.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0.9640086343111702</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.03599136568882982</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0.9640086343111702</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2766,17 +2766,17 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus85.fasta</t>
+          <t>label_12718_7_14_0.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0.9729129354484176</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>0.02708706455158234</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0.9729129354484176</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2787,17 +2787,17 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus89.fasta</t>
+          <t>label_12718_7_14_4.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0.9723101334491266</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>0.02768986655087339</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0.9723101334491266</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2808,17 +2808,17 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus94.fasta</t>
+          <t>label_12718_7_17_0.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0.9665663571804873</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>0.03343364281951271</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0.9665663571804873</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2829,17 +2829,17 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus0.fasta</t>
+          <t>label_12718_7_56_1.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0.9733610984317582</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>0.02663890156824173</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0.9733610984317582</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2850,17 +2850,17 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus101.fasta</t>
+          <t>label_12718_7_59_6.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0.9737252206616033</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.02627477933839675</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0.9737252206616033</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2871,17 +2871,17 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus13.fasta</t>
+          <t>label_GCF_000026505_0.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0.9797421891760332</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>0.02025781082396679</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0.9797421891760332</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2892,17 +2892,17 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus16.fasta</t>
+          <t>label_GCF_000159215_3.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0.9700328643538636</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>0.0299671356461364</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0.9700328643538636</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2913,17 +2913,17 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus21.fasta</t>
+          <t>label_GCF_000159375_0.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0.9717546843112735</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>0.02824531568872643</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0.9717546843112735</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2934,17 +2934,17 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus36.fasta</t>
+          <t>label_GCF_000159375_4.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0.9717618759938403</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.02823812400615965</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0.9717618759938403</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2955,17 +2955,17 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus43.fasta</t>
+          <t>label_GCF_000159415_3.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0.9746405990191532</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>0.02535940098084682</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0.9746405990191532</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2976,17 +2976,17 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus47.fasta</t>
+          <t>label_GCF_000159455_0.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0.974913219429814</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>0.02508678057018602</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0.974913219429814</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2997,17 +2997,17 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus50.fasta</t>
+          <t>label_GCF_000160855_1.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0.9724583224896423</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.02754167751035778</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0.9724583224896423</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3018,17 +3018,17 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus54.fasta</t>
+          <t>label_GCF_000192165_0.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0.9756798289636885</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.02432017103631141</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0.9756798289636885</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3039,17 +3039,17 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus56.fasta</t>
+          <t>label_GCF_000227195_1.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0.9729390071957656</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>0.02706099280423435</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0.9729390071957656</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3060,17 +3060,17 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus60.fasta</t>
+          <t>label_GCF_000227195_3.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0.9734578813070405</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.02654211869295954</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0.9734578813070405</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3081,17 +3081,17 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus64.fasta</t>
+          <t>label_GCF_001435475_1.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0.9726766330058959</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.02732336699410405</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0.9726766330058959</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3102,17 +3102,17 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus66.fasta</t>
+          <t>label_GCF_001435475_2.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0.970927094198038</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>0.029072905801962</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0.970927094198038</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3123,17 +3123,17 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus68.fasta</t>
+          <t>label_GCF_001435475_4.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0.9681838311433471</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>0.03181616885665292</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0.9681838311433471</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3144,17 +3144,17 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus76.fasta</t>
+          <t>label_UMGS258_2.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0.971615216629695</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.02838478337030508</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0.971615216629695</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3165,17 +3165,17 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus77.fasta</t>
+          <t>label_UMGS258_3.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0.9707577717213943</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.02924222827860573</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.9707577717213943</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3186,17 +3186,17 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus79.fasta</t>
+          <t>label_UMGS258_7.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0.9721631694579298</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>0.02783683054207019</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0.9721631694579298</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3207,17 +3207,17 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus88.fasta</t>
+          <t>label_UMGS258_9.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0.9775257719456127</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.02247422805438731</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0.9775257719456127</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3228,61 +3228,19 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_Lactobacillus91.fasta</t>
+          <t>label_UMGS896_1.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0.9685169048822698</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.03148309511773013</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0.9685169048822698</v>
       </c>
       <c r="E130" t="inlineStr">
-        <is>
-          <t>g__Lactobacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="11" t="inlineStr">
-        <is>
-          <t>label_Lactobacillus93.fasta</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>g__Lactobacillus</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="11" t="inlineStr">
-        <is>
-          <t>label_Lactobacillus95.fasta</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" t="inlineStr">
         <is>
           <t>g__Lactobacillus</t>
         </is>
@@ -3299,7 +3257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3337,19 +3295,145 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>label_Pediococcus0.fasta</t>
+          <t>label_GCF_000146325_1.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999778</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999778</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>label_GCF_000146325_3.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>label_GCF_000146325_1.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>label_GCF_000146325_3.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>label_GCF_000146325_0.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9905891032732671</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.009410896726732938</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9905891032732671</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>g__Lactobacillus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>label_GCF_000146325_2.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>g__Pediococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>label_GCF_000146325_long.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9949192545665796</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00508074543342042</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9949192545665796</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>g__Lactobacillus</t>
         </is>
